--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>attackRange</t>
+  </si>
+  <si>
+    <t>attackDuration</t>
   </si>
   <si>
     <t>angularSpeed</t>
@@ -89,6 +92,9 @@
     <t>攻击距离</t>
   </si>
   <si>
+    <t>攻击时长</t>
+  </si>
+  <si>
     <t>转向速度</t>
   </si>
   <si>
@@ -123,6 +129,9 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>1.4</t>
   </si>
   <si>
     <t>999</t>
@@ -1168,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1179,17 +1188,17 @@
     <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.1416666666667" style="1" customWidth="1"/>
-    <col min="4" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.19166666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.96666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.275" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="4" max="10" width="10.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.19166666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.96666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.275" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,95 +1244,104 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:14">
+    <row r="3" ht="60" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>1672401101</v>
@@ -1332,45 +1350,48 @@
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1">
         <v>1.5</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>10</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>5</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>1102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1">
         <v>1672401102</v>
@@ -1379,42 +1400,45 @@
         <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="1">
         <v>1.5</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>10</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>5</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>1103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
         <v>1672401103</v>
@@ -1423,42 +1447,45 @@
         <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="1">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1">
         <v>1.5</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>10</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>1104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>1672401104</v>
@@ -1467,42 +1494,45 @@
         <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="1">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1">
         <v>1.5</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>10</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>1105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
         <v>1672401105</v>
@@ -1511,42 +1541,45 @@
         <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="1">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1">
         <v>1.5</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>10</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>5</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>1201</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>1672401201</v>
@@ -1555,45 +1588,48 @@
         <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="1">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1">
         <v>1.5</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>10</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>5</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>1202</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <v>1672401202</v>
@@ -1602,45 +1638,48 @@
         <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="1">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1">
         <v>1.5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>10</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>5</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>1203</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <v>1672401203</v>
@@ -1649,45 +1688,48 @@
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="1">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1">
         <v>1.5</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>10</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>5</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>1204</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>1672401204</v>
@@ -1696,45 +1738,48 @@
         <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="1">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="1">
         <v>1.5</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>5</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>1205</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <v>1672401205</v>
@@ -1743,45 +1788,48 @@
         <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="1">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="1">
         <v>1.5</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>10</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>5</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>1301</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1">
         <v>1672401301</v>
@@ -1790,42 +1838,45 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="1">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1">
         <v>1.5</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>10</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>5</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>1302</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1">
         <v>1672401302</v>
@@ -1834,42 +1885,45 @@
         <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="1">
+        <v>37</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="1">
         <v>1.5</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>10</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>1303</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1">
         <v>1672401303</v>
@@ -1878,42 +1932,45 @@
         <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="1">
+        <v>37</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1">
         <v>1.5</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>10</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>5</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>1304</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1">
         <v>1672401304</v>
@@ -1922,42 +1979,45 @@
         <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="1">
+        <v>37</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="1">
         <v>1.5</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>10</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>5</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>1305</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1">
         <v>1672401305</v>
@@ -1966,34 +2026,37 @@
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="1">
+        <v>37</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="1">
         <v>1.5</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>10</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>5</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2018,15 +2081,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>attackRange</t>
+  </si>
+  <si>
+    <t>attackHurtTime</t>
   </si>
   <si>
     <t>attackDuration</t>
@@ -92,6 +95,10 @@
     <t>攻击距离</t>
   </si>
   <si>
+    <t>攻击敌人后
+对方多久受伤</t>
+  </si>
+  <si>
     <t>攻击时长</t>
   </si>
   <si>
@@ -129,6 +136,9 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
   <si>
     <t>1.4</t>
@@ -819,12 +829,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1177,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1188,17 +1201,17 @@
     <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.1416666666667" style="1" customWidth="1"/>
-    <col min="4" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.19166666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.96666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.275" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="4" max="11" width="10.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.19166666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.96666666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.275" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,101 +1260,110 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:15">
+    <row r="3" ht="60" customHeight="1" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
         <v>1672401101</v>
@@ -1350,48 +1372,51 @@
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="1">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="1">
         <v>1.5</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>10</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>5</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>1102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
         <v>1672401102</v>
@@ -1400,45 +1425,48 @@
         <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="1">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="1">
         <v>1.5</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>10</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>5</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="P5" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>1103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>1672401103</v>
@@ -1447,45 +1475,48 @@
         <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="1">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1">
         <v>1.5</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>10</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>1104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1">
         <v>1672401104</v>
@@ -1494,45 +1525,48 @@
         <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="1">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="1">
         <v>1.5</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>10</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>5</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>1105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>1672401105</v>
@@ -1541,45 +1575,48 @@
         <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="1">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="1">
         <v>1.5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>10</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>5</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>1201</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1">
         <v>1672401201</v>
@@ -1588,48 +1625,51 @@
         <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="1">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="1">
         <v>1.5</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>10</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>5</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>1202</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1">
         <v>1672401202</v>
@@ -1638,48 +1678,51 @@
         <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="1">
+        <v>40</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="1">
         <v>1.5</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>10</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>5</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>1203</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
         <v>1672401203</v>
@@ -1688,48 +1731,51 @@
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="1">
+        <v>40</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="1">
         <v>1.5</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>10</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>5</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>1204</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1">
         <v>1672401204</v>
@@ -1738,48 +1784,51 @@
         <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="1">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="1">
         <v>1.5</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>10</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>5</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>1205</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
         <v>1672401205</v>
@@ -1788,48 +1837,51 @@
         <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="1">
+        <v>40</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="1">
         <v>1.5</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>10</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>5</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>1301</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
         <v>1672401301</v>
@@ -1838,45 +1890,48 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="1">
+        <v>40</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="1">
         <v>1.5</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>10</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>5</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>1302</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1">
         <v>1672401302</v>
@@ -1885,45 +1940,48 @@
         <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="1">
+        <v>40</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="1">
         <v>1.5</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>10</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>5</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>1303</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1">
         <v>1672401303</v>
@@ -1932,45 +1990,48 @@
         <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="1">
+        <v>40</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="1">
         <v>1.5</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>10</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>5</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>1304</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1">
         <v>1672401304</v>
@@ -1979,45 +2040,48 @@
         <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="1">
+        <v>40</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="1">
         <v>1.5</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>10</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>5</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>1305</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
         <v>1672401305</v>
@@ -2026,37 +2090,40 @@
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="1">
+        <v>40</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="1">
         <v>1.5</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>10</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>5</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2081,15 +2148,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -99,7 +99,7 @@
 对方多久受伤</t>
   </si>
   <si>
-    <t>攻击时长</t>
+    <t>攻击动画时长</t>
   </si>
   <si>
     <t>转向速度</t>
@@ -129,6 +129,9 @@
     <t>Infantry</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -156,42 +159,81 @@
     <t>Human_Infantry_1</t>
   </si>
   <si>
-    <t>普通步兵</t>
+    <t>帝国步兵</t>
   </si>
   <si>
     <t>Human_Infantry_2</t>
   </si>
   <si>
+    <t>资深步兵</t>
+  </si>
+  <si>
     <t>Human_Infantry_3</t>
   </si>
   <si>
+    <t>精英步兵</t>
+  </si>
+  <si>
     <t>Human_Infantry_4</t>
   </si>
   <si>
+    <t>禁卫步兵</t>
+  </si>
+  <si>
     <t>Human_Infantry_5</t>
   </si>
   <si>
+    <t>国王卫队</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
     <t>Archer</t>
   </si>
   <si>
+    <t>1672401201</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
     <t>Human_Archer_1</t>
   </si>
   <si>
-    <t>普通弓箭手</t>
+    <t>帝国弓箭手</t>
   </si>
   <si>
     <t>Human_Archer_2</t>
   </si>
   <si>
+    <t>资深弓箭手</t>
+  </si>
+  <si>
     <t>Human_Archer_3</t>
   </si>
   <si>
+    <t>精英弓箭手</t>
+  </si>
+  <si>
     <t>Human_Archer_4</t>
   </si>
   <si>
+    <t>禁卫长弓手</t>
+  </si>
+  <si>
     <t>Human_Archer_5</t>
   </si>
   <si>
+    <t>国王射手</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cavalry </t>
   </si>
   <si>
@@ -208,6 +250,75 @@
   </si>
   <si>
     <t>Human_Cavalry _5</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>1672401101</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Orc_Infantry_1</t>
+  </si>
+  <si>
+    <t>兽人步兵</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Orc_Infantry_2</t>
+  </si>
+  <si>
+    <t>兽人战士</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>Orc_Infantry_3</t>
+  </si>
+  <si>
+    <t>强兽人</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>Orc_Infantry_4</t>
+  </si>
+  <si>
+    <t>黑兽人</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>Orc_Infantry_5</t>
+  </si>
+  <si>
+    <t>兽人冠军</t>
   </si>
   <si>
     <t>Name</t>
@@ -226,13 +337,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -687,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,34 +815,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,98 +851,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +957,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1190,16 +1309,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.1416666666667" style="1" customWidth="1"/>
     <col min="4" max="11" width="10.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.19166666666667" style="1" customWidth="1"/>
@@ -1368,26 +1487,26 @@
       <c r="C4" s="1">
         <v>1672401101</v>
       </c>
-      <c r="D4" s="1">
-        <v>50</v>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1">
         <v>1.5</v>
@@ -1399,19 +1518,19 @@
         <v>5</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>1102</v>
       </c>
@@ -1421,26 +1540,26 @@
       <c r="C5" s="1">
         <v>1672401102</v>
       </c>
-      <c r="D5" s="1">
-        <v>50</v>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="1">
         <v>1.5</v>
@@ -1452,16 +1571,19 @@
         <v>5</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>1103</v>
       </c>
@@ -1471,26 +1593,26 @@
       <c r="C6" s="1">
         <v>1672401103</v>
       </c>
-      <c r="D6" s="1">
-        <v>50</v>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="1">
         <v>1.5</v>
@@ -1502,16 +1624,19 @@
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>1104</v>
       </c>
@@ -1521,26 +1646,26 @@
       <c r="C7" s="1">
         <v>1672401104</v>
       </c>
-      <c r="D7" s="1">
-        <v>50</v>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="1">
         <v>1.5</v>
@@ -1552,16 +1677,19 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>1105</v>
       </c>
@@ -1571,26 +1699,26 @@
       <c r="C8" s="1">
         <v>1672401105</v>
       </c>
-      <c r="D8" s="1">
-        <v>50</v>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="1">
         <v>1.5</v>
@@ -1602,45 +1730,48 @@
         <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1">
-        <v>1201</v>
+      <c r="A9" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1672401201</v>
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="1">
         <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9" s="1">
         <v>1.5</v>
@@ -1652,16 +1783,16 @@
         <v>5</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1669,7 +1800,7 @@
         <v>1202</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1">
         <v>1672401202</v>
@@ -1678,22 +1809,22 @@
         <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="1">
         <v>1.5</v>
@@ -1705,16 +1836,16 @@
         <v>5</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1722,7 +1853,7 @@
         <v>1203</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1">
         <v>1672401203</v>
@@ -1731,22 +1862,22 @@
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11" s="1">
         <v>1.5</v>
@@ -1758,16 +1889,16 @@
         <v>5</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1775,7 +1906,7 @@
         <v>1204</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1">
         <v>1672401204</v>
@@ -1784,22 +1915,22 @@
         <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1">
         <v>1.5</v>
@@ -1811,16 +1942,16 @@
         <v>5</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1828,7 +1959,7 @@
         <v>1205</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1">
         <v>1672401205</v>
@@ -1837,22 +1968,22 @@
         <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="1">
         <v>1.5</v>
@@ -1864,16 +1995,16 @@
         <v>5</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1881,7 +2012,7 @@
         <v>1301</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1">
         <v>1672401301</v>
@@ -1890,22 +2021,22 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14" s="1">
         <v>1.5</v>
@@ -1917,13 +2048,13 @@
         <v>5</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1931,7 +2062,7 @@
         <v>1302</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1">
         <v>1672401302</v>
@@ -1940,22 +2071,22 @@
         <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15" s="1">
         <v>1.5</v>
@@ -1967,13 +2098,13 @@
         <v>5</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1981,7 +2112,7 @@
         <v>1303</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1">
         <v>1672401303</v>
@@ -1990,22 +2121,22 @@
         <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16" s="1">
         <v>1.5</v>
@@ -2017,13 +2148,13 @@
         <v>5</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2031,7 +2162,7 @@
         <v>1304</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1">
         <v>1672401304</v>
@@ -2040,22 +2171,22 @@
         <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17" s="1">
         <v>1.5</v>
@@ -2067,13 +2198,13 @@
         <v>5</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2081,7 +2212,7 @@
         <v>1305</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1">
         <v>1672401305</v>
@@ -2090,22 +2221,22 @@
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K18" s="1">
         <v>1.5</v>
@@ -2117,18 +2248,286 @@
         <v>5</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>62</v>
+      <c r="K19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1672401102</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1672401103</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1672401104</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1672401105</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="H10:H13" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2148,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>禁卫长弓手</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>Human_Archer_5</t>
@@ -1311,8 +1314,8 @@
   <sheetPr/>
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1964,8 +1967,8 @@
       <c r="C13" s="1">
         <v>1672401205</v>
       </c>
-      <c r="D13" s="1">
-        <v>50</v>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
@@ -2001,10 +2004,10 @@
         <v>44</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2012,7 +2015,7 @@
         <v>1301</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1">
         <v>1672401301</v>
@@ -2054,7 +2057,7 @@
         <v>44</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2062,7 +2065,7 @@
         <v>1302</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1">
         <v>1672401302</v>
@@ -2104,7 +2107,7 @@
         <v>44</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2112,7 +2115,7 @@
         <v>1303</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1">
         <v>1672401303</v>
@@ -2154,7 +2157,7 @@
         <v>44</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2162,7 +2165,7 @@
         <v>1304</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1">
         <v>1672401304</v>
@@ -2204,7 +2207,7 @@
         <v>44</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2212,7 +2215,7 @@
         <v>1305</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1">
         <v>1672401305</v>
@@ -2254,30 +2257,30 @@
         <v>44</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>40</v>
@@ -2292,27 +2295,27 @@
         <v>1.5</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>35</v>
@@ -2321,16 +2324,16 @@
         <v>1672401102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>40</v>
@@ -2345,27 +2348,27 @@
         <v>1.5</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>35</v>
@@ -2374,16 +2377,16 @@
         <v>1672401103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>40</v>
@@ -2398,27 +2401,27 @@
         <v>1.5</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
@@ -2427,16 +2430,16 @@
         <v>1672401104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>40</v>
@@ -2451,27 +2454,27 @@
         <v>1.5</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>35</v>
@@ -2480,16 +2483,16 @@
         <v>1672401105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>40</v>
@@ -2504,22 +2507,22 @@
         <v>1.5</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2547,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>hp</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
   </si>
   <si>
     <t>attack</t>
@@ -86,6 +89,15 @@
     <t>兵种类型</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
     <t>攻击力</t>
   </si>
   <si>
@@ -132,6 +144,9 @@
     <t>100</t>
   </si>
   <si>
+    <t>3.5</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>120</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -286,9 +304,6 @@
   </si>
   <si>
     <t>2102</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>Orc_Infantry_2</t>
@@ -948,15 +963,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1312,10 +1324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1323,17 +1335,17 @@
     <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.1416666666667" style="1" customWidth="1"/>
-    <col min="4" max="11" width="10.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.19166666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.96666666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.275" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="4" max="12" width="10.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.19166666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.96666666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.275" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1385,425 +1397,458 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:16">
+    <row r="3" ht="60" customHeight="1" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1">
         <v>1672401101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="1">
+        <v>46</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="1">
         <v>1.5</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>10</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>5</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>1102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>1672401102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="1">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="1">
         <v>1.5</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>10</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>5</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>1103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1">
         <v>1672401103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="1">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="1">
         <v>1.5</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>10</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>5</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>1104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1">
         <v>1672401104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="1">
+        <v>46</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="1">
         <v>1.5</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>10</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>5</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O7" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>1105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>1672401105</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="1">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="1">
         <v>1.5</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>10</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>5</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O8" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="1">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="1">
         <v>1.5</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>10</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>5</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O9" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>1202</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1">
         <v>1672401202</v>
@@ -1812,51 +1857,54 @@
         <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="1">
+        <v>65</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="1">
         <v>1.5</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>10</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>5</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>1203</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1">
         <v>1672401203</v>
@@ -1865,51 +1913,54 @@
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="1">
+        <v>65</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="1">
         <v>1.5</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>10</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>5</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O11" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>1204</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1">
         <v>1672401204</v>
@@ -1918,104 +1969,110 @@
         <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="1">
+        <v>65</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="1">
         <v>1.5</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>10</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>5</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O12" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>1205</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1">
         <v>1672401205</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="1">
+        <v>65</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="1">
         <v>1.5</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>10</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>5</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>1301</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1">
         <v>1672401301</v>
@@ -2024,48 +2081,51 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="1">
+        <v>46</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="1">
         <v>1.5</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>10</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>5</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O14" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>1302</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1">
         <v>1672401302</v>
@@ -2074,48 +2134,51 @@
         <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="1">
+        <v>46</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="1">
         <v>1.5</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>10</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>5</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O15" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>1303</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1">
         <v>1672401303</v>
@@ -2124,48 +2187,51 @@
         <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="1">
+        <v>46</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="1">
         <v>1.5</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>10</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>5</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O16" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>1304</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1">
         <v>1672401304</v>
@@ -2174,48 +2240,51 @@
         <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="1">
+        <v>46</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="1">
         <v>1.5</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>10</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>5</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>1305</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1">
         <v>1672401305</v>
@@ -2224,312 +2293,330 @@
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="1">
+        <v>10</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="F19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="1">
         <v>1.5</v>
       </c>
-      <c r="L18" s="1">
-        <v>10</v>
-      </c>
-      <c r="M18" s="1">
-        <v>5</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>77</v>
+      <c r="M19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1">
         <v>1672401102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="N20" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
         <v>1672401103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="N21" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>1672401104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="N22" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1">
         <v>1672401105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="N23" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H10:H13" numberStoredAsText="1"/>
+    <ignoredError sqref="I10:I13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2550,15 +2637,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Product/StaticData/Unit.xlsx
+++ b/Product/StaticData/Unit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -177,27 +177,15 @@
     <t>帝国步兵</t>
   </si>
   <si>
-    <t>Human_Infantry_2</t>
-  </si>
-  <si>
     <t>资深步兵</t>
   </si>
   <si>
-    <t>Human_Infantry_3</t>
-  </si>
-  <si>
     <t>精英步兵</t>
   </si>
   <si>
-    <t>Human_Infantry_4</t>
-  </si>
-  <si>
     <t>禁卫步兵</t>
   </si>
   <si>
-    <t>Human_Infantry_5</t>
-  </si>
-  <si>
     <t>国王卫队</t>
   </si>
   <si>
@@ -225,30 +213,18 @@
     <t>帝国弓箭手</t>
   </si>
   <si>
-    <t>Human_Archer_2</t>
-  </si>
-  <si>
     <t>资深弓箭手</t>
   </si>
   <si>
-    <t>Human_Archer_3</t>
-  </si>
-  <si>
     <t>精英弓箭手</t>
   </si>
   <si>
-    <t>Human_Archer_4</t>
-  </si>
-  <si>
     <t>禁卫长弓手</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>Human_Archer_5</t>
-  </si>
-  <si>
     <t>国王射手</t>
   </si>
   <si>
@@ -258,22 +234,10 @@
     <t>Human_Cavalry _1</t>
   </si>
   <si>
-    <t>Human_Cavalry _2</t>
-  </si>
-  <si>
-    <t>Human_Cavalry _3</t>
-  </si>
-  <si>
-    <t>Human_Cavalry _4</t>
-  </si>
-  <si>
-    <t>Human_Cavalry _5</t>
-  </si>
-  <si>
     <t>2101</t>
   </si>
   <si>
-    <t>1672401101</t>
+    <t>1672402101</t>
   </si>
   <si>
     <t>120</t>
@@ -306,7 +270,7 @@
     <t>2102</t>
   </si>
   <si>
-    <t>Orc_Infantry_2</t>
+    <t>1672402102</t>
   </si>
   <si>
     <t>兽人战士</t>
@@ -315,7 +279,7 @@
     <t>2103</t>
   </si>
   <si>
-    <t>Orc_Infantry_3</t>
+    <t>1672402103</t>
   </si>
   <si>
     <t>强兽人</t>
@@ -324,7 +288,7 @@
     <t>2104</t>
   </si>
   <si>
-    <t>Orc_Infantry_4</t>
+    <t>1672402104</t>
   </si>
   <si>
     <t>黑兽人</t>
@@ -333,10 +297,244 @@
     <t>2105</t>
   </si>
   <si>
-    <t>Orc_Infantry_5</t>
+    <t>1672402105</t>
   </si>
   <si>
     <t>兽人冠军</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>1672402201</t>
+  </si>
+  <si>
+    <t>Orc_Archer_1</t>
+  </si>
+  <si>
+    <t>兽人弓箭手</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>1672402202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>1672402203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>1672402204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>1672402205</t>
+  </si>
+  <si>
+    <t>3101</t>
+  </si>
+  <si>
+    <t>1672403101</t>
+  </si>
+  <si>
+    <t>HighElf_Infantry_1</t>
+  </si>
+  <si>
+    <t>3102</t>
+  </si>
+  <si>
+    <t>1672403102</t>
+  </si>
+  <si>
+    <t>3103</t>
+  </si>
+  <si>
+    <t>1672403103</t>
+  </si>
+  <si>
+    <t>3104</t>
+  </si>
+  <si>
+    <t>1672403104</t>
+  </si>
+  <si>
+    <t>3105</t>
+  </si>
+  <si>
+    <t>1672403105</t>
+  </si>
+  <si>
+    <t>3201</t>
+  </si>
+  <si>
+    <t>1672403201</t>
+  </si>
+  <si>
+    <t>HighElf_Archer_1</t>
+  </si>
+  <si>
+    <t>3202</t>
+  </si>
+  <si>
+    <t>1672403202</t>
+  </si>
+  <si>
+    <t>3203</t>
+  </si>
+  <si>
+    <t>1672403203</t>
+  </si>
+  <si>
+    <t>3204</t>
+  </si>
+  <si>
+    <t>1672403204</t>
+  </si>
+  <si>
+    <t>3205</t>
+  </si>
+  <si>
+    <t>1672403205</t>
+  </si>
+  <si>
+    <t>4101</t>
+  </si>
+  <si>
+    <t>1672404101</t>
+  </si>
+  <si>
+    <t>Barbarian_Infantry_1</t>
+  </si>
+  <si>
+    <t>4102</t>
+  </si>
+  <si>
+    <t>1672404102</t>
+  </si>
+  <si>
+    <t>4103</t>
+  </si>
+  <si>
+    <t>1672404103</t>
+  </si>
+  <si>
+    <t>4104</t>
+  </si>
+  <si>
+    <t>1672404104</t>
+  </si>
+  <si>
+    <t>4105</t>
+  </si>
+  <si>
+    <t>1672404105</t>
+  </si>
+  <si>
+    <t>4201</t>
+  </si>
+  <si>
+    <t>1672404201</t>
+  </si>
+  <si>
+    <t>Barbarian_Archer_1</t>
+  </si>
+  <si>
+    <t>4202</t>
+  </si>
+  <si>
+    <t>1672404202</t>
+  </si>
+  <si>
+    <t>4203</t>
+  </si>
+  <si>
+    <t>1672404203</t>
+  </si>
+  <si>
+    <t>4204</t>
+  </si>
+  <si>
+    <t>1672404204</t>
+  </si>
+  <si>
+    <t>4205</t>
+  </si>
+  <si>
+    <t>1672404205</t>
+  </si>
+  <si>
+    <t>5101</t>
+  </si>
+  <si>
+    <t>1672405101</t>
+  </si>
+  <si>
+    <t>Undead_Infantry_1</t>
+  </si>
+  <si>
+    <t>5102</t>
+  </si>
+  <si>
+    <t>1672405102</t>
+  </si>
+  <si>
+    <t>5103</t>
+  </si>
+  <si>
+    <t>1672405103</t>
+  </si>
+  <si>
+    <t>5104</t>
+  </si>
+  <si>
+    <t>1672405104</t>
+  </si>
+  <si>
+    <t>5105</t>
+  </si>
+  <si>
+    <t>1672405105</t>
+  </si>
+  <si>
+    <t>5201</t>
+  </si>
+  <si>
+    <t>1672405201</t>
+  </si>
+  <si>
+    <t>Undead_Archer_1</t>
+  </si>
+  <si>
+    <t>5202</t>
+  </si>
+  <si>
+    <t>1672405202</t>
+  </si>
+  <si>
+    <t>5203</t>
+  </si>
+  <si>
+    <t>1672405203</t>
+  </si>
+  <si>
+    <t>5204</t>
+  </si>
+  <si>
+    <t>1672405204</t>
+  </si>
+  <si>
+    <t>5205</t>
+  </si>
+  <si>
+    <t>1672405205</t>
   </si>
   <si>
     <t>Name</t>
@@ -1324,10 +1522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1335,12 +1533,14 @@
     <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.1416666666667" style="1" customWidth="1"/>
-    <col min="4" max="12" width="10.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="1" customWidth="1"/>
+    <col min="7" max="12" width="10.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.19166666666667" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.96666666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.275" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.25" style="1" customWidth="1"/>
+    <col min="15" max="16" width="7.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.875" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
@@ -1613,10 +1813,10 @@
         <v>49</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1669,10 +1869,10 @@
         <v>49</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1725,10 +1925,10 @@
         <v>49</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1781,21 +1981,21 @@
         <v>49</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1">
         <v>50</v>
@@ -1804,19 +2004,19 @@
         <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>47</v>
@@ -1837,10 +2037,10 @@
         <v>49</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1848,7 +2048,7 @@
         <v>1202</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1">
         <v>1672401202</v>
@@ -1860,19 +2060,19 @@
         <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>47</v>
@@ -1893,10 +2093,10 @@
         <v>49</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1904,7 +2104,7 @@
         <v>1203</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1">
         <v>1672401203</v>
@@ -1916,19 +2116,19 @@
         <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>47</v>
@@ -1949,10 +2149,10 @@
         <v>49</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1960,7 +2160,7 @@
         <v>1204</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1">
         <v>1672401204</v>
@@ -1972,19 +2172,19 @@
         <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>47</v>
@@ -2005,10 +2205,10 @@
         <v>49</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2016,31 +2216,31 @@
         <v>1205</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1">
         <v>1672401205</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>47</v>
@@ -2061,10 +2261,10 @@
         <v>49</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2072,7 +2272,7 @@
         <v>1301</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1">
         <v>1672401301</v>
@@ -2117,7 +2317,7 @@
         <v>49</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2125,7 +2325,7 @@
         <v>1302</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1">
         <v>1672401302</v>
@@ -2170,7 +2370,7 @@
         <v>49</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2178,7 +2378,7 @@
         <v>1303</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1">
         <v>1672401303</v>
@@ -2223,7 +2423,7 @@
         <v>49</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2231,7 +2431,7 @@
         <v>1304</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1">
         <v>1672401304</v>
@@ -2276,7 +2476,7 @@
         <v>49</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2284,7 +2484,7 @@
         <v>1305</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1">
         <v>1672401305</v>
@@ -2329,33 +2529,33 @@
         <v>49</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>45</v>
@@ -2370,48 +2570,48 @@
         <v>1.5</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1">
-        <v>1672401102</v>
+      <c r="C20" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>45</v>
@@ -2426,48 +2626,48 @@
         <v>1.5</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
-        <v>1672401103</v>
+      <c r="C21" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>45</v>
@@ -2482,48 +2682,48 @@
         <v>1.5</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1">
-        <v>1672401104</v>
+      <c r="C22" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>45</v>
@@ -2538,48 +2738,48 @@
         <v>1.5</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="1">
-        <v>1672401105</v>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>45</v>
@@ -2594,22 +2794,1982 @@
         <v>1.5</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M24" s="1">
+        <v>10</v>
+      </c>
+      <c r="N24" s="1">
+        <v>5</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M25" s="1">
+        <v>10</v>
+      </c>
+      <c r="N25" s="1">
+        <v>5</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="1">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M26" s="1">
+        <v>10</v>
+      </c>
+      <c r="N26" s="1">
+        <v>5</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="1">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M27" s="1">
+        <v>10</v>
+      </c>
+      <c r="N27" s="1">
+        <v>5</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M28" s="1">
+        <v>10</v>
+      </c>
+      <c r="N28" s="1">
+        <v>5</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O23" s="1" t="s">
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="1">
+        <v>50</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M34" s="1">
+        <v>10</v>
+      </c>
+      <c r="N34" s="1">
+        <v>5</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="1">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M35" s="1">
+        <v>10</v>
+      </c>
+      <c r="N35" s="1">
+        <v>5</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="1">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M36" s="1">
+        <v>10</v>
+      </c>
+      <c r="N36" s="1">
+        <v>5</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="1">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M37" s="1">
+        <v>10</v>
+      </c>
+      <c r="N37" s="1">
+        <v>5</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M38" s="1">
+        <v>10</v>
+      </c>
+      <c r="N38" s="1">
+        <v>5</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>105</v>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="1">
+        <v>50</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M44" s="1">
+        <v>10</v>
+      </c>
+      <c r="N44" s="1">
+        <v>5</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="1">
+        <v>50</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M45" s="1">
+        <v>10</v>
+      </c>
+      <c r="N45" s="1">
+        <v>5</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="1">
+        <v>50</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M46" s="1">
+        <v>10</v>
+      </c>
+      <c r="N46" s="1">
+        <v>5</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="1">
+        <v>50</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M47" s="1">
+        <v>10</v>
+      </c>
+      <c r="N47" s="1">
+        <v>5</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M48" s="1">
+        <v>10</v>
+      </c>
+      <c r="N48" s="1">
+        <v>5</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="1">
+        <v>50</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M54" s="1">
+        <v>10</v>
+      </c>
+      <c r="N54" s="1">
+        <v>5</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="1">
+        <v>50</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M55" s="1">
+        <v>10</v>
+      </c>
+      <c r="N55" s="1">
+        <v>5</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="1">
+        <v>50</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M56" s="1">
+        <v>10</v>
+      </c>
+      <c r="N56" s="1">
+        <v>5</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="1">
+        <v>50</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M57" s="1">
+        <v>10</v>
+      </c>
+      <c r="N57" s="1">
+        <v>5</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M58" s="1">
+        <v>10</v>
+      </c>
+      <c r="N58" s="1">
+        <v>5</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2637,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:1">
